--- a/Myntra/Myntra.xlsx
+++ b/Myntra/Myntra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,50 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>userName</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>rating</t>
+          <t>Body or Garment Size</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>totalCountraiting</t>
+          <t>Fabric</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>userName</t>
+          <t>Pattern</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>Sustainable</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Body or Garment Size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Fabric</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pattern</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Sustainable</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Fabric 2</t>
         </is>
@@ -528,50 +508,30 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/14202654</t>
+          <t>"Sandeep"||"Rujuta"||"Vishal Dinkar Gosavi"||"sunny the ba"||"Yash Pandey"||"Sandeep"</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>"Sandeep"||"Rujuta"||"Vishal Dinkar Gosavi"||"sunny the ba"||"Yash Pandey"||"Sandeep"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>"This was an nice product and good qualit||"Decent quality rain jacket . The only reason I have not given 5 stars is its like a pullover with chain halway and only one pocket reducing its utility and convenience to use it.||"lightwight, best for cycling...absolutely wonderful product, it has just one pocket but thats ok ..that pocket becomes a pouch for the jacket...Love i||"Product is damage..!||"Nice produc||"This was an nice product and good qualit</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -596,50 +556,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/14333366</t>
+          <t>"Nirmal Kumar Saha"||"Kaviraj B"||"Mohit"||"swaroop"</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>"Nirmal Kumar Saha"||"Kaviraj B"||"Mohit"||"swaroop"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>"Good quality. Trouser including this item would have been better||"The delivery guys currently delivering all the products is genuine and customer friendly. Kindly recognise hi||"Jacket is fully waterproof except the zip side. The water 💦 goes from that area and make you wet||"Nic</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -662,44 +602,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17777870/2022/10/10/38decc86-6fee-44ab-9cc1-1c249c6f09fe1665393445650-Sports52-wear-Men-Black-Reversible-Rain-Jacket-9141665393445-1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17777870/2022/10/10/43950673-1483-45e8-9f6e-ead48435de271665393445642-Sports52-wear-Men-Black-Reversible-Rain-Jacket-9141665393445-2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17777870/2022/10/10/b7e93187-3f80-4729-865b-5b0ca28726c91665393445634-Sports52-wear-Men-Black-Reversible-Rain-Jacket-9141665393445-3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17777870/2022/10/10/ba60f40c-9abd-4c71-827f-5aaee3ae1c5e1665393445625-Sports52-wear-Men-Black-Reversible-Rain-Jacket-9141665393445-4.jpg</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/17777870</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -724,50 +648,30 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/13169148</t>
+          <t>"anu"||"Vidhu"||"Myntra Customer"||"Vidhu"||"Simran Kaur"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>"anu"||"Vidhu"||"Myntra Customer"||"Vidhu"||"Simran Kaur"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>"Excellent product. Very light weight. Not warm. So can be used in summers and over sweaters in winter. I purchased larger size, it can be used in all weather's. Very comfortable to put on. Thanks myntr||"Nice 👍🏻||"Looks great, great for a rainy day.||"Nice 👍🏻||"As expected !!!</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -792,50 +696,30 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/13693076</t>
+          <t>"Mohit Gurjar"||"RAJ"||"Shweta Sharon Lee"||"Mohit Gurjar"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>Synthetic</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>"Mohit Gurjar"||"RAJ"||"Shweta Sharon Lee"||"Mohit Gurjar"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>"Got in 599, size M.  Giving 4 star. Completely waterproof rain jacket||"Although the size is good, the material is easily tearable. One wrong attempt to wear and the whole thing has one big hole||"The product is quite light and thin and I hope it can survive and protect me from the rain currently in bangalore||"Got in 599, size M.  Giving 4 star. Completely waterproof rain jacket</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Synthetic</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -858,44 +742,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611170/2022/3/22/975c8014-1a7b-47f4-a23a-85f1659abcc51647964743076ColumbiaMensWatertightIIJacket1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611170/2022/3/22/49b4aab7-7868-47df-9daf-ad8fff57f5791647964743061ColumbiaMensWatertightIIJacket2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611170/2022/3/22/ca2fdab0-a1c6-423b-a7fa-9a94ece019731647964743068ColumbiaMensWatertightIIJacket3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611170/2022/3/22/cf5aa3ba-431e-45c2-aaa2-5b12154e20091647964743052ColumbiaMensWatertightIIJacket4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611170/2022/3/22/cd97ce62-aeb9-465a-bf69-df830079c9371647964743092ColumbiaMensWatertightIIJacket5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611170/2022/3/22/05e5e981-e3a4-458a-a9dd-55bd0714c8891647964743084ColumbiaMensWatertightIIJacket6.jpg</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/17611170</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -920,50 +788,30 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18288572</t>
+          <t>"aftab shaikh"||"irfan patel"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>"aftab shaikh"||"irfan patel"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>"Value for money product\nBut delevery service is third class very slow and lat||"Not for rainy day jacke</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -988,50 +836,30 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18288528</t>
+          <t>"Myntra Customer"||"siva rama Krishna"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>"Myntra Customer"||"siva rama Krishna"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>"Lovely looking and quality of the Jacket is also good. It can be use only in rainy season||"Quality is good color and comfort is nic</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1054,44 +882,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611168/2022/3/22/a5f4bb4a-1214-407b-9f5c-a5a6120f88b01647958184610ColumbiaMensHikeboundJacket1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611168/2022/3/22/67cf16d5-9a88-48a2-8987-200373d9ef4e1647958184595ColumbiaMensHikeboundJacket2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611168/2022/3/22/ee9d8f2a-1f67-4dda-aad7-a3cb2c5abc611647958184618ColumbiaMensHikeboundJacket3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611168/2022/3/22/1ea2fce7-a9da-40f4-9404-b38c952a2bc81647958184570ColumbiaMensHikeboundJacket4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611168/2022/3/22/d9edb08a-32f8-42ab-ac1a-61be9c6af3ff1647958184586ColumbiaMensHikeboundJacket5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611168/2022/3/22/53b27e74-ec5a-4446-9200-031c17faf85b1647958184602ColumbiaMensHikeboundJacket6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611168/2022/3/22/415ed59f-51bc-4f09-9e2c-307df1bfaab71647958184578ColumbiaMensHikeboundJacket7.jpg</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/17611168</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>Polyester</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
         <is>
           <t>Polyester</t>
         </is>
@@ -1120,50 +932,30 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18169972</t>
+          <t>"Soumya Latha"||"Sangita Rajesh Todkar"||"Sanyukta"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>"Soumya Latha"||"Sangita Rajesh Todkar"||"Sanyukta"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>"What a wonderful product. proud to say that u will not get anywhere, guys go for it, i promise u , u won't regret but will feel sooo overjoyed like me. I always wanted a thick one and this soo thick, perfect and very beautiful to see. Just as shown in the pic. Thank u sooo much Myntra, u always make us happy.👍❤️❤️🌹🌹💐💐💐🙏||"Classsss...fabric is classy and too much comfortabl||"Good quality</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1188,50 +980,30 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18976982</t>
+          <t>"Thinlay Choezom"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>"Thinlay Choezom"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">"It's good </t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1256,50 +1028,30 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/13167946</t>
+          <t>"Ningthoujam"||"Narendra Singh"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>"Ningthoujam"||"Narendra Singh"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>"It is so great my dad borrowed it from me and won't return I||"good stuf</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1322,44 +1074,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288500/2022/5/16/41f39050-da77-4fb7-a719-937248fcc4b21652702412208t-baseOliveTaslonSolidFullSleeveWaterproofRainwearJacketForM1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288500/2022/5/16/c2c2d442-f645-4d6b-a560-ff926251a1021652702412141t-baseOliveTaslonSolidFullSleeveWaterproofRainwearJacketForM2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288500/2022/5/16/26a62a0f-2508-43d8-ac03-fc9cefe647171652702412153t-baseOliveTaslonSolidFullSleeveWaterproofRainwearJacketForM3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288500/2022/5/16/e1f80389-735b-4f09-a2a0-08e4e54352751652702412187t-baseOliveTaslonSolidFullSleeveWaterproofRainwearJacketForM4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288500/2022/5/16/0100f246-9b9c-48c9-ba17-c93d53c838691652702412165t-baseOliveTaslonSolidFullSleeveWaterproofRainwearJacketForM5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288500/2022/5/16/7a9b7f6a-c256-40df-bcc9-72c0795f720e1652702412176t-baseOliveTaslonSolidFullSleeveWaterproofRainwearJacketForM6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288500/2022/5/16/c28f5294-c213-4a6d-9aaa-975be1c5fe581652702412198t-baseOliveTaslonSolidFullSleeveWaterproofRainwearJacketForM7.jpg</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18288500</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1382,44 +1118,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400230/2021/9/8/d46acc7e-d5cc-4b86-b034-17de81b9a3c91631083052385RainJacket1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400230/2021/9/8/7d6aa12a-0ea2-468e-9131-34c0beb0d5711631083052095RainJacket2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400230/2021/9/8/ee3e1c9a-bad1-4e1c-b670-2bbf474d58d71631083051729RainJacket3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400230/2021/9/8/7aad3456-5341-4b9e-8726-cfb351979d6f1631083051984RainJacket4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400230/2021/9/8/34b7c2ad-d8b7-40ff-af1c-246b07e983ac1631083052242RainJacket5.jpg</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/15400230</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1444,50 +1164,30 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18288514</t>
+          <t>"SANDIP HALDER"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>"SANDIP HALDER"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>"Can’t use it as raincoat.  Even in little rain, water licking inside the coat. 3 star for only look and weight. Its very lite weight jacket, not a raincoat</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1510,44 +1210,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350150/2022/5/20/a2918094-1eff-4214-ab62-ad6122b6c32a1653033638105RainChtSuit_ClrcombLime_OliveL1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350150/2022/5/20/aa458313-ded4-4ab2-b817-f9c9c7df62b11653033638150RainChtSuit_ClrcombLime_OliveL2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350150/2022/5/20/f49aa38f-aac3-4df5-8d09-a868815b36041653033638140RainChtSuit_ClrcombLime_OliveL3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350150/2022/5/20/5b4e48ce-fb02-409f-b947-97b2a6f73fbd1653033638129RainChtSuit_ClrcombLime_OliveL4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350150/2022/5/20/770ea6dc-dad2-47f0-9766-21fb7cd4125e1653033638186RainChtSuit_ClrcombLime_OliveL5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350150/2022/5/20/19152be9-9942-4d3e-83fc-ceb480456a8b1653033638175RainChtSuit_ClrcombLime_OliveL6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350150/2022/5/20/8343abb6-8ae5-4968-8f78-45af051110ee1653033638117RainChtSuit_ClrcombLime_OliveL7.jpg</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18350150</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1570,44 +1254,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350096/2022/5/20/f76321e0-36c5-4424-b0bc-d8a901f479231653041764555RainAnorakUpperMust_BlackL1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350096/2022/5/20/9eb67442-413d-46d3-8ba9-05662fc21f411653041764494RainAnorakUpperMust_BlackL2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350096/2022/5/20/a79b1692-895e-4811-bacf-b000e8d3235a1653041764530RainAnorakUpperMust_BlackL3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350096/2022/5/20/b617ef55-13a3-4d73-8534-125c687ce18d1653041764567RainAnorakUpperMust_BlackL4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350096/2022/5/20/0cb4c27e-2373-4015-b30d-1fefe6713c821653041764518RainAnorakUpperMust_BlackL5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350096/2022/5/20/48ee4f70-0d84-4ded-97ff-d4b7f68df9711653041764543RainAnorakUpperMust_BlackL6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350096/2022/5/20/2c99b416-6a45-4448-801a-3fdff85902d01653041764507RainAnorakUpperMust_BlackL7.jpg</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18350096</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1630,44 +1298,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400260/2021/9/8/fb565afd-489d-443d-82fa-95668a32d7731631082902714RainJacket1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400260/2021/9/8/c3ca142d-7135-4cf6-b86e-36c8e7d9bd801631082902435RainJacket2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400260/2021/9/8/50a370c8-b548-4570-b08f-b8815d712e681631082901998RainJacket3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400260/2021/9/8/dd618955-1ded-4d24-acb7-4bbea67c8fa61631082902286RainJacket4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15400260/2021/9/8/2062bdf6-acb2-4d1c-89b1-9bb7c31fee4b1631082902556RainJacket5.jpg</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/15400260</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1692,50 +1344,30 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/15400298</t>
+          <t>"pooja singh"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>"pooja singh"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Very comfortable and looking too good and good product 😉☺️ I love it  . I am satisfied with my product </t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1758,52 +1390,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288530/2022/5/16/69e377f6-42b2-48c4-b244-538445b4f1181652702125211t-baseBlackNylonRibstopSolidFullSleeveWaterproofRainwearJack1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288530/2022/5/16/f21d42e6-fecc-4707-ad1a-9c609f72a44e1652702125140t-baseBlackNylonRibstopSolidFullSleeveWaterproofRainwearJack2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288530/2022/5/16/cde1c830-9d8d-4290-821c-fa4cd70e0b781652702125175t-baseBlackNylonRibstopSolidFullSleeveWaterproofRainwearJack3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288530/2022/5/16/b8c83d25-6392-4dee-ad9d-687d9aa025191652702125152t-baseBlackNylonRibstopSolidFullSleeveWaterproofRainwearJack4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288530/2022/5/16/5aeedc97-eb40-4479-81be-47e077820d371652702125164t-baseBlackNylonRibstopSolidFullSleeveWaterproofRainwearJack5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288530/2022/5/16/e2ed6603-5d71-4186-abfe-a4cdec90656e1652702125199t-baseBlackNylonRibstopSolidFullSleeveWaterproofRainwearJack6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288530/2022/5/16/3b072b25-d8a7-4728-ad35-4b366fd508281652702125187t-baseBlackNylonRibstopSolidFullSleeveWaterproofRainwearJack7.jpg</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18288530</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>"Beerender Brain"||"Narresh Kumar"||"Upendra Rajput"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>"Looks Good, Fits fine, Comfortable, Stylish, Material quality is thin I was expecting it to be thicker. Hoodie length could have been increased and loosen it a bit. U can't put on hoodie if u have completely zipped. U have to unzip a bit to put on the hoodie. I wanted to return for size for bit longer in length but not a lot of difference in length for different sizes. It holds the rain   water well.||"It was super cool. You can go for it. Thank you Tbase||"Very nice and sturdy. Go for it without any hasitation</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1828,50 +1436,30 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18288556</t>
+          <t>"kiran tella"</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>"kiran tella"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>"Looks good and the quality is very good and it's worth the price</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1894,44 +1482,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288512/2022/5/16/1284e586-5ff5-4e3d-98fb-bdcb38493d2b1652702350798t-baseGreyTaslonSolidFullSleeveWaterproofRainwearJacketForMe1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288512/2022/5/16/2845107e-66b6-445c-ae4e-9c1781db87ba1652702350759t-baseGreyTaslonSolidFullSleeveWaterproofRainwearJacketForMe2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288512/2022/5/16/f7d87631-d293-463a-97ee-6d4730c02b4b1652702350824t-baseGreyTaslonSolidFullSleeveWaterproofRainwearJacketForMe3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288512/2022/5/16/83adce57-462f-4034-a69d-7f91172e39ab1652702350786t-baseGreyTaslonSolidFullSleeveWaterproofRainwearJacketForMe4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288512/2022/5/16/e6247d86-9878-4181-b020-1ed76acf82561652702350773t-baseGreyTaslonSolidFullSleeveWaterproofRainwearJacketForMe5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288512/2022/5/16/c8ff38e6-1186-4cb1-8fb3-52e7df99fccf1652702350837t-baseGreyTaslonSolidFullSleeveWaterproofRainwearJacketForMe6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288512/2022/5/16/678df959-f463-4a92-a783-f787492559ae1652702350810t-baseGreyTaslonSolidFullSleeveWaterproofRainwearJacketForMe7.jpg</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18288512</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+          <t>Polyester</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
         <is>
           <t>Polyester</t>
         </is>
@@ -1960,50 +1532,30 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18415678</t>
+          <t>"chandan singh rawat"</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>"chandan singh rawat"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>"It does not work in mild &amp; heavy rain.\nIf drizzle &amp; sun comes out you will bath in your sweat.\nTotal waste</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2028,50 +1580,30 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18415688</t>
+          <t>"Praneeth"</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>"Praneeth"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>"Superb</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2094,44 +1626,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255603/2017/1/16/11484542193405-Columbia-Black-Watertight-Hooded-Rain-Jacket-9701484542193386-1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255603/2016/8/1/11470042257017-Columbia-Black-Watertight-Hooded-Rain-Jacket-7921470042266714-2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255603/2016/8/1/11470042256997-Columbia-Black-Watertight-Hooded-Rain-Jacket-7921470042266714-3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255603/2016/8/1/11470042256975-Columbia-Black-Watertight-Hooded-Rain-Jacket-7921470042266714-4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255603/2016/8/1/11470042256950-Columbia-Black-Watertight-Hooded-Rain-Jacket-7921470042266714-5.jpg</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/1255603</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+          <t>Nylon</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
         <is>
           <t>Polyester</t>
         </is>
@@ -2160,50 +1676,30 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/12907468</t>
+          <t>"Tapash Kumar Biswas"||"Sayan Sapui"||"Sachin Pinate"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>"Tapash Kumar Biswas"||"Sayan Sapui"||"Sachin Pinate"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>"Amazing product ! Loved it. Very comfortable and easy to wear and use||"Purchased for trekking but not sure weather it would be enough or not..not worth the price..light weight but cloth material is not good quality as I expected..not yet tested as wind cheaters or as rain jacket.Overall not 100% satisfied||"Top product..It's a master piece in raincoat category; very good looking ..Timely delivery too by myntr</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2228,50 +1724,30 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/13167948</t>
+          <t>"Sangmuan"</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>"Sangmuan"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Excellent as depicted...no </t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2294,44 +1770,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942020/2021/11/16/6f676bee-82af-4d2b-bc5a-546612e66af71637056618440-Watertight-II-Jacket-5741637056617775-1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942020/2021/11/16/dec875d2-5fcc-44e2-b393-e56419855d7e1637056618418-Watertight-II-Jacket-5741637056617775-2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942020/2021/11/16/9b5fb37c-fc3c-4cd7-927e-5fee35f55f2a1637056618398-Watertight-II-Jacket-5741637056617775-3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942020/2021/11/16/aec361e0-38ed-470f-9c57-9e19026f83c61637056618377-Watertight-II-Jacket-5741637056617775-4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942020/2021/11/16/8fd6cde1-3014-4cbc-b7c2-fe9ce1bb535f1637056618359-Watertight-II-Jacket-5741637056617775-5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942020/2021/11/16/64a99060-4cb6-4274-b97b-95a53b3d90e11637056618340-Watertight-II-Jacket-5741637056617775-6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942020/2021/11/16/63d17396-bb22-4e6d-8b27-91b13686bbe01637056618320-Watertight-II-Jacket-5741637056617775-7.jpg</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/15942020</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2354,44 +1814,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942022/2021/11/16/1ea2c84a-7682-4929-a3ac-836376d0b4e91637059336477-EvaPOURation-Jacket-8031637059335729-1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942022/2021/11/16/7a3f6cb7-c69b-470e-b8e8-6c4fdf0d0f8c1637059336458-EvaPOURation-Jacket-8031637059335729-2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942022/2021/11/16/900afc34-775c-45e3-93a1-0a9dfe5244171637059336439-EvaPOURation-Jacket-8031637059335729-3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942022/2021/11/16/4066bf91-4008-4f26-a540-2de07e46c5bf1637059336417-EvaPOURation-Jacket-8031637059335729-4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942022/2021/11/16/9ed758d4-7d43-4d4d-84cc-54013afd734d1637059336393-EvaPOURation-Jacket-8031637059335729-5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942022/2021/11/16/9229b775-c826-4f79-9e33-69d7d0adfa301637059336373-EvaPOURation-Jacket-8031637059335729-6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942022/2021/11/16/81886998-f611-49c8-b192-55391ab756171637059336353-EvaPOURation-Jacket-8031637059335729-7.jpg</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/15942022</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2414,44 +1858,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255599/2017/1/24/11485248918648-Columbia-Black-Arcadia-II-Hooded-Rain-Jacket-7461485248918601-1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255599/2016/5/4/11462346388268-Columbia-Black-Arcadia-II-Hooded-Rain-Jacket-5111462346388007-2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255599/2016/5/4/11462346388254-Columbia-Black-Arcadia-II-Hooded-Rain-Jacket-5111462346388007-3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255599/2016/5/4/11462346388223-Columbia-Black-Arcadia-II-Hooded-Rain-Jacket-5111462346388007-4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255599/2016/5/4/11462346388205-Columbia-Black-Arcadia-II-Hooded-Rain-Jacket-5111462346388007-5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/1255599/2016/5/4/11462346388190-Columbia-Black-Arcadia-II-Hooded-Rain-Jacket-5111462346388007-6.jpg</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/1255599</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2474,44 +1902,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611192/2022/6/20/bfa70891-bc02-4801-91e0-2c4afd2bcae01655727466152-Columbia-Women-Blue-Watertight-Arcadia-II-Rain-Jacket-347165-1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611192/2022/6/20/c32cf642-47a0-4892-851a-bd7bbf799fd01655727466131-Columbia-Women-Blue-Watertight-Arcadia-II-Rain-Jacket-347165-2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611192/2022/6/20/bb00a4c6-9c92-40f4-8139-41cb9dd8df3c1655727466110-Columbia-Women-Blue-Watertight-Arcadia-II-Rain-Jacket-347165-3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611192/2022/6/20/1422b6dc-4eb8-4ddb-89ec-d7bd96ffeac61655727466088-Columbia-Women-Blue-Watertight-Arcadia-II-Rain-Jacket-347165-4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611192/2022/6/20/4254e307-f1fe-4629-8c10-c429885cb4771655727466067-Columbia-Women-Blue-Watertight-Arcadia-II-Rain-Jacket-347165-5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611192/2022/6/20/71abbfd1-a727-40fb-88ab-0e6188ed04e11655727466046-Columbia-Women-Blue-Watertight-Arcadia-II-Rain-Jacket-347165-6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/17611192/2022/6/20/506a3b3e-735e-43c4-8754-342c69c969621655727466025-Columbia-Women-Blue-Watertight-Arcadia-II-Rain-Jacket-347165-7.jpg</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/17611192</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2536,50 +1948,30 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/17120990</t>
+          <t>"Upendra Rajput"</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>"Upendra Rajput"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>"Good jacket but little thinner than expecte</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2602,44 +1994,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935302/2022/7/1/a6753e3f-773f-45a2-9bf3-5520c4fd60ae165667487115820DressesOliveGreenSolidPonchoStyleKneeLengthRaincoatforWome1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935302/2022/7/1/19cc1262-7ad3-4ea2-bf9a-37119365052a165667487118020DressesOliveGreenSolidPonchoStyleKneeLengthRaincoatforWome2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935302/2022/7/1/8077e12b-cc3a-4fc8-a7fe-98a4059f7b65165667487119220DressesOliveGreenSolidPonchoStyleKneeLengthRaincoatforWome3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935302/2022/7/1/2015a3f4-a44a-46a0-a0f8-35def4ca3151165667487116920DressesOliveGreenSolidPonchoStyleKneeLengthRaincoatforWome4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935302/2022/7/1/96e50559-30ea-4b02-a1d3-62b3817df983165667487120420DressesOliveGreenSolidPonchoStyleKneeLengthRaincoatforWome5.jpg</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18935302</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2662,44 +2038,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350066/2022/5/20/26d9ac15-47bd-44cc-9590-2d9e93c464461653046364040WildcraftMenRedSolidWaterproofRainwearJacket1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350066/2022/5/20/2fa91879-389e-4530-b4a8-e04b7c52d4a91653046363990WildcraftMenRedSolidWaterproofRainwearJacket2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350066/2022/5/20/b652c694-d432-4369-a6d1-f0a5752c19f01653046364015WildcraftMenRedSolidWaterproofRainwearJacket3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350066/2022/5/20/aac95c68-c9cf-4d1a-8017-fc954f9ae2e41653046364052WildcraftMenRedSolidWaterproofRainwearJacket4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350066/2022/5/20/fd729480-d6dc-4436-b9b4-225aa310c37e1653046363977WildcraftMenRedSolidWaterproofRainwearJacket5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350066/2022/5/20/5720c7a7-7b13-4727-ac0e-f109d28037a41653046364028WildcraftMenRedSolidWaterproofRainwearJacket6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18350066/2022/5/20/bee395cc-5115-43ba-8c1b-a945a9d20e091653046364003WildcraftMenRedSolidWaterproofRainwearJacket7.jpg</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18350066</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2724,50 +2084,30 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18288526</t>
+          <t>"nandu"||"Leha Divakar"</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>"nandu"||"Leha Divakar"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>"Same as shown.... Very good in quality.. Better than expected... Same colour.. Fits wel||"Perfectly made and the colours look vibrant</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2790,44 +2130,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288560/2022/5/16/9b94dd03-74a7-4390-b544-bb27fb3832ae1652702331525t-baseNavyTaslonSolidFullSleeveWaterproofRainwearJacketForMe1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288560/2022/5/16/22daf4eb-01ea-4358-90c1-3c0ff29531611652702331489t-baseNavyTaslonSolidFullSleeveWaterproofRainwearJacketForMe2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288560/2022/5/16/b30f8e5f-f1a1-476b-bf7a-5bb2eb4f05911652702331551t-baseNavyTaslonSolidFullSleeveWaterproofRainwearJacketForMe3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288560/2022/5/16/3e022569-85a5-4921-9627-b538014fd7371652702331513t-baseNavyTaslonSolidFullSleeveWaterproofRainwearJacketForMe4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288560/2022/5/16/ce57fe05-c730-4ded-a6e9-aa8ed9ee84281652702331501t-baseNavyTaslonSolidFullSleeveWaterproofRainwearJacketForMe5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288560/2022/5/16/40f2c6f4-4a65-4727-aeeb-868ccac6b6301652702331563t-baseNavyTaslonSolidFullSleeveWaterproofRainwearJacketForMe6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288560/2022/5/16/0c845d86-7392-48ba-a79c-b596f4b3e05d1652702331537t-baseNavyTaslonSolidFullSleeveWaterproofRainwearJacketForMe7.jpg</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18288560</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2850,44 +2174,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288508/2022/5/16/580da9c4-6507-4ee9-a62f-9c9fe0a8cc651652703295713RainJacket1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288508/2022/5/16/6f5fdd86-8995-4248-b940-d9bca94e47ef1652703295648RainJacket2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288508/2022/5/16/10f1a01f-661d-4f7e-8c0f-d6b1e78afbb81652703295659RainJacket3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288508/2022/5/16/a55e900c-64b5-44ed-a1a2-e6dd98f183d31652703295691RainJacket4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288508/2022/5/16/0c98a403-39bb-4296-9168-84aeb8370f441652703295669RainJacket5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288508/2022/5/16/ea0aa103-1253-42cb-bff6-a82999b2174c1652703295680RainJacket6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288508/2022/5/16/631d750a-0986-4302-8bc0-02ad76b301001652703295702RainJacket7.jpg</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18288508</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2912,50 +2220,30 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18350168</t>
+          <t>"Navadeep c"</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>"Navadeep c"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>"I love this rain coat</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2980,50 +2268,30 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18288580</t>
+          <t>"SUJEET"||"Myntra Customer"</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>"SUJEET"||"Myntra Customer"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>"According to the price of the product this is not worth it, because this not 100% water proof, i would say 70||"The Raincoat quality is good.but it has damaged inside layer where water may enter while washing I have plastered it with tape.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3046,44 +2314,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288502/2022/5/16/aa8ae4c8-e19c-4daa-9260-f39c9cb6af1d1652704094149RainJacket1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288502/2022/5/16/5ff66ccb-0512-4383-b8ba-aaaf20487d281652704094138RainJacket2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288502/2022/5/16/5fe912ab-eaa4-4fcf-b470-882e52c75aaf1652704094183RainJacket3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288502/2022/5/16/bf16b388-50f7-44b2-a612-adf1e8f3fd6f1652704094125RainJacket4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288502/2022/5/16/af1e69d5-ecca-48ed-ae7f-e9bf39a8f5f01652704094171RainJacket5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288502/2022/5/16/e9bd6c43-f104-45cc-b905-056d01896a601652704094160RainJacket6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18288502/2022/5/16/caa55084-637f-4d43-9ddd-5187edb38f431652704094111RainJacket7.jpg</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18288502</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+          <t>Nylon</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
         <is>
           <t>Polyester</t>
         </is>
@@ -3112,50 +2364,30 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/18415680</t>
+          <t>"vijay"</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Nylon</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>"vijay"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>"Wrist cover elastic  very very  loose</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Nylon</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3178,44 +2410,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18734472/2022/6/14/e902b94e-d268-410b-9518-d69be38d5efa1655214681597TEEMOODSBlackSolidHypaDryHoodedLonglineRainJacket1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18734472/2022/6/14/f811d82b-9c68-467c-a448-dc0120da23c21655214681572TEEMOODSBlackSolidHypaDryHoodedLonglineRainJacket2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18734472/2022/6/14/13f02f14-b349-47c2-b7d7-9d2935f4477d1655214681552TEEMOODSBlackSolidHypaDryHoodedLonglineRainJacket3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18734472/2022/6/14/b5a93a0a-570b-4ac6-8b77-b0f8c10693f91655214681540TEEMOODSBlackSolidHypaDryHoodedLonglineRainJacket4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18734472/2022/6/14/445843e4-0b87-4521-97e9-3bb1257667ba1655214681561TEEMOODSBlackSolidHypaDryHoodedLonglineRainJacket5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18734472/2022/6/14/084eb368-3557-4a27-8dfc-491947767bf81655214681584TEEMOODSBlackSolidHypaDryHoodedLonglineRainJacket6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18734472/2022/6/14/2cd2da80-61da-475a-a36f-2c4d582661f31655214681525TEEMOODSBlackSolidHypaDryHoodedLonglineRainJacket7.jpg</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18734472</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3238,44 +2454,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18976984/2022/7/5/131e69c7-1ade-4a2e-9713-6307d10cf9781657026496182WildcraftMenKhaki-ColouredSolidWaterproofRainJacket1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18976984/2022/7/5/1d5a7eea-0e17-4e70-a5e4-7943817cff3e1657026496147WildcraftMenKhaki-ColouredSolidWaterproofRainJacket2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18976984/2022/7/5/06da5ede-b3e0-44ac-bb7d-fa59cb4e38e51657026496205WildcraftMenKhaki-ColouredSolidWaterproofRainJacket3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18976984/2022/7/5/12a31743-9d83-4066-8347-6aff687275a01657026496170WildcraftMenKhaki-ColouredSolidWaterproofRainJacket4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18976984/2022/7/5/10c14ac3-029c-4027-a665-d7556e6062731657026496158WildcraftMenKhaki-ColouredSolidWaterproofRainJacket5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18976984/2022/7/5/5d348027-63b6-4e1e-a205-7583b88c5bee1657026496130WildcraftMenKhaki-ColouredSolidWaterproofRainJacket6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18976984/2022/7/5/8156c477-de4c-4cf6-97b8-ba7aef3e24671657026496193WildcraftMenKhaki-ColouredSolidWaterproofRainJacket7.jpg</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18976984</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3298,44 +2498,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/20243034/2022/10/1/b1a3c4cd-38dd-4106-bd8c-c7d1972db7c01664600906377Hoodedraincoat1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/20243034/2022/10/1/1795f972-605c-4302-b27e-ec400f0065a41664600906352Hoodedraincoat2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/20243034/2022/10/1/aefab0d6-f74b-439a-95cd-5c91be33b73b1664600906361Hoodedraincoat3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/20243034/2022/10/1/66ab5b9a-c9bc-4d30-82d8-347659662f421664600906370Hoodedraincoat4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/20243034/2022/10/1/3e97f1c0-25ad-468f-a21a-b44c9ecaa5631664600906385Hoodedraincoat5.jpg</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/20243034</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>Sustainable</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3358,44 +2542,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942026/2021/11/18/9c14128b-640c-4687-8852-969e2b3b031f1637209710171-Arcadia-II-Jacket-9871637209709472-1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942026/2021/11/18/36289340-3e26-4382-97a8-df8ceee06d551637209710150-Arcadia-II-Jacket-9871637209709472-2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942026/2021/11/18/33311808-f0ea-45b1-8c43-c699b28c92241637209710129-Arcadia-II-Jacket-9871637209709472-3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942026/2021/11/18/b7a464e6-61f3-461b-9c9f-90ce075296621637209710107-Arcadia-II-Jacket-9871637209709472-4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942026/2021/11/18/a6148f55-c97c-40cd-a522-cbe994db4d881637209710086-Arcadia-II-Jacket-9871637209709472-5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942026/2021/11/18/e19e9a33-ff60-41b8-b6b7-190aa91c9c091637209710067-Arcadia-II-Jacket-9871637209709472-6.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/15942026/2021/11/18/fd347e2c-9acb-484f-a075-b083a420dd181637209710044-Arcadia-II-Jacket-9871637209709472-7.jpg</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/15942026</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3418,44 +2586,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935314/2022/7/1/0f2527ee-d30c-4f7f-b186-b805aca9f137165667452755320DressesBlackPrintedPonchoStyleKneeLengthRaincoatforWomen1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935314/2022/7/1/ee2d7036-95bf-4f3b-b877-2d8a720013ca165667452757520DressesBlackPrintedPonchoStyleKneeLengthRaincoatforWomen2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935314/2022/7/1/0e94b05d-6877-4cc0-bc50-111fc8e7e6c6165667452758720DressesBlackPrintedPonchoStyleKneeLengthRaincoatforWomen3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935314/2022/7/1/01b46ec2-1ba3-4edf-b476-339e8924700e165667452760020DressesBlackPrintedPonchoStyleKneeLengthRaincoatforWomen4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935314/2022/7/1/c7fc90e4-70df-4a23-ac7b-d84f31d0d853165667452754120DressesBlackPrintedPonchoStyleKneeLengthRaincoatforWomen5.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935314/2022/7/1/4782a553-e65f-46aa-8cd9-d20aa6022062165667452756420DressesBlackPrintedPonchoStyleKneeLengthRaincoatforWomen6.jpg</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18935314</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Printed</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3478,44 +2630,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935304/2022/7/1/2522a2a8-a8c2-4c07-b1e0-88b0f42f96f2165666934119320DressesBlackSolidPonchoStyleKneeLengthRaincoatforWomen1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935304/2022/7/1/85d779b8-5a2c-40ea-a800-c56d9a764c5e165666934115720DressesBlackSolidPonchoStyleKneeLengthRaincoatforWomen2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935304/2022/7/1/0e31f08a-d21a-4cb6-8603-fa2096fd46d1165666934120420DressesBlackSolidPonchoStyleKneeLengthRaincoatforWomen3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935304/2022/7/1/8e1af1ab-8da8-493e-9093-0212a61d1d99165666934118220DressesBlackSolidPonchoStyleKneeLengthRaincoatforWomen4.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/18935304/2022/7/1/1c38f876-b4bf-4295-a35b-ba647329960e165666934117120DressesBlackSolidPonchoStyleKneeLengthRaincoatforWomen5.jpg</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/18935304</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
           <t>Nylon</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3538,44 +2674,28 @@
           <t>http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/productimage/2021/5/7/3cee03c4-24f8-414d-88dc-f12c1ac260b41620366440564-1.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/productimage/2021/5/7/8275d46c-a401-4f40-9c7d-3db4a310c7811620366440583-2.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/productimage/2021/5/7/e0b82705-5dc9-40be-b05d-b707a6d01cc41620366440603-3.jpg||http://assets.myntassets.com/h_720,q_90,w_540/v1/assets/images/productimage/2021/5/7/82820401-5b32-40bc-8584-c9806fefba771620366440625-4.jpg</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/reviews/14265570</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
           <t>Polyester</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Solid</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3600,50 +2720,30 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/14265560</t>
+          <t>"komal chandani"||"Shubha"||"Govindegowda"||"komal chandani"</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>"komal chandani"||"Shubha"||"Govindegowda"||"komal chandani"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>"Very nice product thank you Myntra||"It is a good raincoat. My sin wanted cartoon won so i had to return this. Quality and fit is really goo||"Good||"Very nice product thank you Myntra</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Polyester</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3668,50 +2768,30 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/reviews/14999418</t>
+          <t>"sanvi Rajgariah"</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Garment Measurements in</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Acrylic</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>"sanvi Rajgariah"</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>"Really very nice like Poonam Pandey</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Garment Measurements in</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Acrylic</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Solid</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
